--- a/input_data/admin_data/BRA/ptot_2006.xlsx
+++ b/input_data/admin_data/BRA/ptot_2006.xlsx
@@ -116,10 +116,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D2" s="1">
-        <v>0.86138355731964111</v>
+        <v>0.99862736463546753</v>
       </c>
       <c r="E2" s="1">
         <v>117123344</v>
@@ -139,10 +139,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D3" s="1">
-        <v>0.87465286254882813</v>
+        <v>0.99875873327255249</v>
       </c>
       <c r="E3" s="1">
         <v>117123344</v>
@@ -162,10 +162,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D4" s="1">
-        <v>0.87883299589157104</v>
+        <v>0.99880015850067139</v>
       </c>
       <c r="E4" s="1">
         <v>117123344</v>
@@ -185,10 +185,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D5" s="1">
-        <v>0.88609963655471802</v>
+        <v>0.99887210130691528</v>
       </c>
       <c r="E5" s="1">
         <v>117123344</v>
@@ -208,10 +208,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D6" s="1">
-        <v>0.89578855037689209</v>
+        <v>0.99896806478500366</v>
       </c>
       <c r="E6" s="1">
         <v>117123344</v>
@@ -231,10 +231,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D7" s="1">
-        <v>0.93590784072875977</v>
+        <v>0.99936532974243164</v>
       </c>
       <c r="E7" s="1">
         <v>117123344</v>
@@ -254,10 +254,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D8" s="1">
-        <v>0.96825981140136719</v>
+        <v>0.99968570470809937</v>
       </c>
       <c r="E8" s="1">
         <v>117123344</v>
@@ -277,10 +277,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>8651.2982229594654</v>
+        <v>85.67030377800782</v>
       </c>
       <c r="D9" s="1">
-        <v>0.98412990570068359</v>
+        <v>0.99984282255172729</v>
       </c>
       <c r="E9" s="1">
         <v>117123344</v>
